--- a/data/משקים-חקלאיים-5.xlsx
+++ b/data/משקים-חקלאיים-5.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanaim\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailtauacil-my.sharepoint.com/personal/eyalgrinberg_mail_tau_ac_il/Documents/Desktop/R/data science apps/HW2-EyalGrinberg/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_E9BA03CACE6CD0B69A2D2A35497838F694298BAA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460"/>
+    <workbookView xWindow="4305" yWindow="-11640" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="שיווק ירקות ופירות" sheetId="1" r:id="rId1"/>
@@ -226,21 +227,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="0_ ;\-0\ "/>
-    <numFmt numFmtId="166" formatCode="General_)"/>
-    <numFmt numFmtId="167" formatCode="#.00"/>
-    <numFmt numFmtId="168" formatCode="###,###.##"/>
-    <numFmt numFmtId="169" formatCode="#."/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="0_ ;\-0\ "/>
+    <numFmt numFmtId="167" formatCode="General_)"/>
+    <numFmt numFmtId="168" formatCode="#.00"/>
+    <numFmt numFmtId="169" formatCode="###,###.##"/>
+    <numFmt numFmtId="170" formatCode="#."/>
   </numFmts>
   <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -248,7 +249,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -257,7 +258,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -265,7 +266,7 @@
     <font>
       <b/>
       <sz val="12"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -273,13 +274,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -287,13 +288,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -368,7 +369,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -408,7 +409,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -649,30 +650,30 @@
   </borders>
   <cellStyleXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="1" fontId="12" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="169" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="170" fontId="15" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="169" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="170" fontId="15" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
@@ -693,175 +694,165 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="5">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" readingOrder="2"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" readingOrder="2"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="right" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="30">
-    <cellStyle name="Base" xfId="2"/>
-    <cellStyle name="Col_head" xfId="3"/>
+    <cellStyle name="Base" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Col_head" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="4"/>
-    <cellStyle name="Date" xfId="5"/>
-    <cellStyle name="Fixed" xfId="6"/>
-    <cellStyle name="Foot" xfId="7"/>
-    <cellStyle name="Head" xfId="8"/>
-    <cellStyle name="Heading1" xfId="9"/>
-    <cellStyle name="Heading2" xfId="10"/>
-    <cellStyle name="Mida" xfId="11"/>
-    <cellStyle name="Name" xfId="12"/>
+    <cellStyle name="Comma 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Date" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Fixed" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Foot" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Head" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Heading1" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Heading2" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Mida" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Name" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="13"/>
-    <cellStyle name="Normal 2 2" xfId="14"/>
-    <cellStyle name="Normal 2 3" xfId="15"/>
-    <cellStyle name="Normal 3" xfId="16"/>
-    <cellStyle name="Normal 4" xfId="17"/>
-    <cellStyle name="Normal 4 2" xfId="18"/>
-    <cellStyle name="Normal 5" xfId="19"/>
-    <cellStyle name="Normal 6" xfId="20"/>
-    <cellStyle name="Normal 7" xfId="21"/>
-    <cellStyle name="Normal 8" xfId="22"/>
-    <cellStyle name="Normal 9" xfId="23"/>
-    <cellStyle name="Percent 2" xfId="24"/>
-    <cellStyle name="Percent 3" xfId="25"/>
-    <cellStyle name="regularStyle" xfId="26"/>
-    <cellStyle name="Sub_head" xfId="27"/>
-    <cellStyle name="Text" xfId="28"/>
-    <cellStyle name="היפר-קישור 2" xfId="29"/>
+    <cellStyle name="Normal 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Normal 2 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Normal 2 3" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Normal 3" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Normal 4" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Normal 4 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Normal 5" xfId="19" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Normal 6" xfId="20" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Normal 7" xfId="21" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Normal 8" xfId="22" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Normal 9" xfId="23" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Percent 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Percent 3" xfId="25" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="regularStyle" xfId="26" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Sub_head" xfId="27" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Text" xfId="28" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="היפר-קישור 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -895,13 +886,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1021920</xdr:colOff>
+      <xdr:colOff>1018745</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>24079</xdr:rowOff>
+      <xdr:rowOff>27254</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1003,6 +1000,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1038,6 +1052,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1213,940 +1244,926 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="A11" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="25.625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="2" customWidth="1"/>
+    <col min="1" max="1" width="25.6328125" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="12.6328125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.08984375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.36328125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.7265625" style="2" customWidth="1"/>
     <col min="7" max="7" width="13" style="2" customWidth="1"/>
     <col min="8" max="8" width="9" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.375" customWidth="1"/>
-    <col min="10" max="10" width="31" style="5" customWidth="1"/>
-    <col min="13" max="13" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.36328125" customWidth="1"/>
+    <col min="10" max="10" width="31" style="4" customWidth="1"/>
+    <col min="13" max="13" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="6"/>
       <c r="J1" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="15" customFormat="1">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="J2" s="16"/>
-    </row>
-    <row r="3" spans="1:10" s="15" customFormat="1">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" s="15" customFormat="1">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="J4" s="16" t="s">
+    <row r="2" spans="1:10">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="J4" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="15" customFormat="1">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="J5" s="16"/>
-    </row>
-    <row r="6" spans="1:10" s="15" customFormat="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="J6" s="16"/>
-    </row>
-    <row r="7" spans="1:10" s="15" customFormat="1" ht="15.75">
-      <c r="A7" s="17" t="s">
+    <row r="5" spans="1:10">
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.5">
+      <c r="A7" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="J7" s="11" t="s">
+      <c r="B7" s="13"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="J7" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="15" customFormat="1" ht="15.75">
-      <c r="A8" s="17" t="s">
+    <row r="8" spans="1:10" ht="15.5">
+      <c r="A8" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18" t="s">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="15" customFormat="1" ht="15.75">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-    </row>
-    <row r="10" spans="1:10" s="15" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A10" s="19" t="s">
+    <row r="9" spans="1:10" ht="15.5">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+    </row>
+    <row r="10" spans="1:10" ht="16" thickBot="1">
+      <c r="A10" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="22">
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="18">
         <v>2017</v>
       </c>
-      <c r="G10" s="23"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="25" t="s">
+      <c r="G10" s="19"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="21" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="15" customFormat="1" ht="16.5" thickTop="1">
-      <c r="A11" s="59" t="s">
+    <row r="11" spans="1:10" ht="16" thickTop="1">
+      <c r="A11" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="32" t="s">
+      <c r="D11" s="23"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="J11" s="63" t="s">
+      <c r="J11" s="57" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="35" customFormat="1" ht="50.25" customHeight="1">
-      <c r="A12" s="60"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="33" t="s">
+    <row r="12" spans="1:10" s="31" customFormat="1" ht="50.25" customHeight="1">
+      <c r="A12" s="54"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="57" t="s">
+      <c r="E12" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="57" t="s">
+      <c r="F12" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="57" t="s">
+      <c r="G12" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="57" t="s">
+      <c r="H12" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="58" t="s">
+      <c r="I12" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="J12" s="64"/>
-    </row>
-    <row r="13" spans="1:10" s="35" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="36" t="s">
+      <c r="J12" s="58"/>
+    </row>
+    <row r="13" spans="1:10" s="31" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="37">
+      <c r="B13" s="33">
         <v>10722</v>
       </c>
-      <c r="C13" s="37">
+      <c r="C13" s="33">
         <v>3693</v>
       </c>
-      <c r="D13" s="38">
+      <c r="D13" s="34">
         <v>1567</v>
       </c>
-      <c r="E13" s="38">
+      <c r="E13" s="34">
         <v>1353</v>
       </c>
-      <c r="F13" s="38">
+      <c r="F13" s="34">
         <v>1001</v>
       </c>
-      <c r="G13" s="38">
+      <c r="G13" s="34">
         <v>423</v>
       </c>
-      <c r="H13" s="38">
+      <c r="H13" s="34">
         <v>4769</v>
       </c>
-      <c r="I13" s="39">
+      <c r="I13" s="35">
         <v>4401</v>
       </c>
-      <c r="J13" s="40" t="s">
+      <c r="J13" s="36" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="41" customFormat="1" ht="15">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:10" s="37" customFormat="1">
+      <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="37">
+      <c r="B14" s="33">
         <v>4964</v>
       </c>
-      <c r="C14" s="37">
+      <c r="C14" s="33">
         <v>1585</v>
       </c>
-      <c r="D14" s="38">
+      <c r="D14" s="34">
         <v>551</v>
       </c>
-      <c r="E14" s="38">
+      <c r="E14" s="34">
         <v>377</v>
       </c>
-      <c r="F14" s="38">
+      <c r="F14" s="34">
         <v>485</v>
       </c>
-      <c r="G14" s="38">
+      <c r="G14" s="34">
         <v>207</v>
       </c>
-      <c r="H14" s="38">
+      <c r="H14" s="34">
         <v>2584</v>
       </c>
-      <c r="I14" s="39">
+      <c r="I14" s="35">
         <v>2270</v>
       </c>
-      <c r="J14" s="11" t="s">
+      <c r="J14" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="41" customFormat="1">
-      <c r="A15" s="42" t="s">
+    <row r="15" spans="1:10" s="37" customFormat="1">
+      <c r="A15" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="43">
+      <c r="B15" s="39">
         <v>2790</v>
       </c>
-      <c r="C15" s="43">
+      <c r="C15" s="39">
         <v>1120</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="12">
         <v>332</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="12">
         <v>253</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="12">
         <v>345</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="12">
         <v>103</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="12">
         <v>1164</v>
       </c>
-      <c r="I15" s="44">
+      <c r="I15" s="40">
         <v>887</v>
       </c>
-      <c r="J15" s="45" t="s">
+      <c r="J15" s="41" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="41" customFormat="1">
-      <c r="A16" s="42" t="s">
+    <row r="16" spans="1:10" s="37" customFormat="1">
+      <c r="A16" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="43">
+      <c r="B16" s="39">
         <v>166</v>
       </c>
-      <c r="C16" s="43">
+      <c r="C16" s="39">
         <v>62</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="12">
         <v>25</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="12">
         <v>47</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="12">
         <v>62</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="12">
         <v>73</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="12">
         <v>58</v>
       </c>
-      <c r="I16" s="44">
+      <c r="I16" s="40">
         <v>22</v>
       </c>
-      <c r="J16" s="46" t="s">
+      <c r="J16" s="42" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="41" customFormat="1">
-      <c r="A17" s="42" t="s">
+    <row r="17" spans="1:10" s="37" customFormat="1">
+      <c r="A17" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="47">
+      <c r="B17" s="43">
         <v>511</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="12">
         <v>221</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="12">
         <v>91</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="12">
         <v>72</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="12">
         <v>65</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="12">
         <v>24</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="12">
         <v>212</v>
       </c>
-      <c r="I17" s="44">
+      <c r="I17" s="40">
         <v>166</v>
       </c>
-      <c r="J17" s="45" t="s">
+      <c r="J17" s="41" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="41" customFormat="1">
-      <c r="A18" s="15" t="s">
+    <row r="18" spans="1:10" s="37" customFormat="1">
+      <c r="A18" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="47">
+      <c r="B18" s="43">
         <v>1497</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="12">
         <v>182</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="12">
         <v>103</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="12">
         <v>5</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="12">
         <v>13</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="12">
         <v>7</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="12">
         <v>1150</v>
       </c>
-      <c r="I18" s="44">
+      <c r="I18" s="40">
         <v>1195</v>
       </c>
-      <c r="J18" s="48" t="s">
+      <c r="J18" s="44" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="41" customFormat="1" ht="15">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="1:10" s="37" customFormat="1">
+      <c r="A19" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="49">
+      <c r="B19" s="45">
         <v>2772</v>
       </c>
-      <c r="C19" s="38">
+      <c r="C19" s="34">
         <v>849</v>
       </c>
-      <c r="D19" s="38">
+      <c r="D19" s="34">
         <v>384</v>
       </c>
-      <c r="E19" s="38">
+      <c r="E19" s="34">
         <v>272</v>
       </c>
-      <c r="F19" s="38">
+      <c r="F19" s="34">
         <v>249</v>
       </c>
-      <c r="G19" s="38">
+      <c r="G19" s="34">
         <v>64</v>
       </c>
-      <c r="H19" s="38">
+      <c r="H19" s="34">
         <v>1200</v>
       </c>
-      <c r="I19" s="39">
+      <c r="I19" s="35">
         <v>1282</v>
       </c>
-      <c r="J19" s="11" t="s">
+      <c r="J19" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="41" customFormat="1">
-      <c r="A20" s="42" t="s">
+    <row r="20" spans="1:10" s="37" customFormat="1">
+      <c r="A20" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="47">
+      <c r="B20" s="43">
         <v>2024</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="12">
         <v>585</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="12">
         <v>233</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="12">
         <v>198</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="12">
         <v>174</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="12">
         <v>40</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H20" s="12">
         <v>909</v>
       </c>
-      <c r="I20" s="44">
+      <c r="I20" s="40">
         <v>1009</v>
       </c>
-      <c r="J20" s="45" t="s">
+      <c r="J20" s="41" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="41" customFormat="1">
-      <c r="A21" s="42" t="s">
+    <row r="21" spans="1:10" s="37" customFormat="1">
+      <c r="A21" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="47">
+      <c r="B21" s="43">
         <v>38</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="12">
         <v>20</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="12">
         <v>7</v>
       </c>
-      <c r="E21" s="50" t="s">
+      <c r="E21" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="50" t="s">
+      <c r="F21" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G21" s="12">
         <v>15</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="12">
         <v>14</v>
       </c>
-      <c r="I21" s="44">
+      <c r="I21" s="40">
         <v>2</v>
       </c>
-      <c r="J21" s="46" t="s">
+      <c r="J21" s="42" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="41" customFormat="1">
-      <c r="A22" s="42" t="s">
+    <row r="22" spans="1:10" s="37" customFormat="1">
+      <c r="A22" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="47">
+      <c r="B22" s="43">
         <v>490</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="12">
         <v>152</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="12">
         <v>76</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="12">
         <v>62</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F22" s="12">
         <v>60</v>
       </c>
-      <c r="G22" s="50" t="s">
+      <c r="G22" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="H22" s="14">
+      <c r="H22" s="12">
         <v>217</v>
       </c>
-      <c r="I22" s="44">
+      <c r="I22" s="40">
         <v>212</v>
       </c>
-      <c r="J22" s="45" t="s">
+      <c r="J22" s="41" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="41" customFormat="1">
-      <c r="A23" s="15" t="s">
+    <row r="23" spans="1:10" s="37" customFormat="1">
+      <c r="A23" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="47">
+      <c r="B23" s="43">
         <v>220</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="12">
         <v>92</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="12">
         <v>68</v>
       </c>
-      <c r="E23" s="50" t="s">
+      <c r="E23" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="F23" s="50" t="s">
+      <c r="F23" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="G23" s="50" t="s">
+      <c r="G23" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="H23" s="14">
+      <c r="H23" s="12">
         <v>60</v>
       </c>
-      <c r="I23" s="44">
+      <c r="I23" s="40">
         <v>59</v>
       </c>
-      <c r="J23" s="48" t="s">
+      <c r="J23" s="44" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="41" customFormat="1" ht="15">
-      <c r="A24" s="6" t="s">
+    <row r="24" spans="1:10" s="37" customFormat="1">
+      <c r="A24" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="49">
+      <c r="B24" s="45">
         <v>2593</v>
       </c>
-      <c r="C24" s="38">
+      <c r="C24" s="34">
         <v>1103</v>
       </c>
-      <c r="D24" s="38">
+      <c r="D24" s="34">
         <v>562</v>
       </c>
-      <c r="E24" s="38">
+      <c r="E24" s="34">
         <v>584</v>
       </c>
-      <c r="F24" s="38">
+      <c r="F24" s="34">
         <v>230</v>
       </c>
-      <c r="G24" s="38">
+      <c r="G24" s="34">
         <v>140</v>
       </c>
-      <c r="H24" s="38">
+      <c r="H24" s="34">
         <v>832</v>
       </c>
-      <c r="I24" s="39">
+      <c r="I24" s="35">
         <v>749</v>
       </c>
-      <c r="J24" s="11" t="s">
+      <c r="J24" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="15" customFormat="1">
-      <c r="A25" s="42" t="s">
+    <row r="25" spans="1:10">
+      <c r="A25" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="47">
+      <c r="B25" s="43">
         <v>2343</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="12">
         <v>1018</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="12">
         <v>508</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="12">
         <v>513</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F25" s="12">
         <v>169</v>
       </c>
-      <c r="G25" s="14">
+      <c r="G25" s="12">
         <v>95</v>
       </c>
-      <c r="H25" s="14">
+      <c r="H25" s="12">
         <v>712</v>
       </c>
-      <c r="I25" s="44">
+      <c r="I25" s="40">
         <v>660</v>
       </c>
-      <c r="J25" s="45" t="s">
+      <c r="J25" s="41" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="41" customFormat="1">
-      <c r="A26" s="42" t="s">
+    <row r="26" spans="1:10" s="37" customFormat="1">
+      <c r="A26" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="47">
+      <c r="B26" s="43">
         <v>80</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="12">
         <v>45</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D26" s="12">
         <v>31</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26" s="12">
         <v>43</v>
       </c>
-      <c r="F26" s="14">
+      <c r="F26" s="12">
         <v>37</v>
       </c>
-      <c r="G26" s="14">
+      <c r="G26" s="12">
         <v>37</v>
       </c>
-      <c r="H26" s="14">
+      <c r="H26" s="12">
         <v>25</v>
       </c>
-      <c r="I26" s="44">
+      <c r="I26" s="40">
         <v>10</v>
       </c>
-      <c r="J26" s="46" t="s">
+      <c r="J26" s="42" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="41" customFormat="1">
-      <c r="A27" s="42" t="s">
+    <row r="27" spans="1:10" s="37" customFormat="1">
+      <c r="A27" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="47">
+      <c r="B27" s="43">
         <v>129</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="12">
         <v>35</v>
       </c>
-      <c r="D27" s="50" t="s">
+      <c r="D27" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="50" t="s">
+      <c r="E27" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="F27" s="50" t="s">
+      <c r="F27" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="G27" s="50" t="s">
+      <c r="G27" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="H27" s="14">
+      <c r="H27" s="12">
         <v>67</v>
       </c>
-      <c r="I27" s="44">
+      <c r="I27" s="40">
         <v>48</v>
       </c>
-      <c r="J27" s="45" t="s">
+      <c r="J27" s="41" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="41" customFormat="1">
-      <c r="A28" s="15" t="s">
+    <row r="28" spans="1:10" s="37" customFormat="1">
+      <c r="A28" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="47">
+      <c r="B28" s="43">
         <v>41</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="12">
         <v>5</v>
       </c>
-      <c r="D28" s="50" t="s">
+      <c r="D28" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="E28" s="50" t="s">
+      <c r="E28" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="F28" s="50" t="s">
+      <c r="F28" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="G28" s="50" t="s">
+      <c r="G28" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="H28" s="14">
+      <c r="H28" s="12">
         <v>28</v>
       </c>
-      <c r="I28" s="44">
+      <c r="I28" s="40">
         <v>31</v>
       </c>
-      <c r="J28" s="48" t="s">
+      <c r="J28" s="44" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="51" customFormat="1" ht="15">
-      <c r="A29" s="6" t="s">
+    <row r="29" spans="1:10" s="5" customFormat="1">
+      <c r="A29" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="49">
+      <c r="B29" s="45">
         <v>393</v>
       </c>
-      <c r="C29" s="38">
+      <c r="C29" s="34">
         <v>156</v>
       </c>
-      <c r="D29" s="38">
+      <c r="D29" s="34">
         <v>70</v>
       </c>
-      <c r="E29" s="38">
+      <c r="E29" s="34">
         <v>120</v>
       </c>
-      <c r="F29" s="38">
+      <c r="F29" s="34">
         <v>37</v>
       </c>
-      <c r="G29" s="38">
+      <c r="G29" s="34">
         <v>12</v>
       </c>
-      <c r="H29" s="38">
+      <c r="H29" s="34">
         <v>153</v>
       </c>
-      <c r="I29" s="39">
+      <c r="I29" s="35">
         <v>100</v>
       </c>
-      <c r="J29" s="11" t="s">
+      <c r="J29" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="15" customFormat="1">
-      <c r="A30" s="42" t="s">
+    <row r="30" spans="1:10">
+      <c r="A30" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="47">
+      <c r="B30" s="43">
         <v>236</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30" s="12">
         <v>113</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D30" s="12">
         <v>56</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E30" s="12">
         <v>103</v>
       </c>
-      <c r="F30" s="14">
+      <c r="F30" s="12">
         <v>10</v>
       </c>
-      <c r="G30" s="14">
+      <c r="G30" s="12">
         <v>7</v>
       </c>
-      <c r="H30" s="14">
+      <c r="H30" s="12">
         <v>64</v>
       </c>
-      <c r="I30" s="44">
+      <c r="I30" s="40">
         <v>36</v>
       </c>
-      <c r="J30" s="45" t="s">
+      <c r="J30" s="41" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="51" customFormat="1" ht="15">
-      <c r="A31" s="42" t="s">
+    <row r="31" spans="1:10" s="5" customFormat="1">
+      <c r="A31" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="47">
+      <c r="B31" s="43">
         <v>16</v>
       </c>
-      <c r="C31" s="14">
+      <c r="C31" s="12">
         <v>12</v>
       </c>
-      <c r="D31" s="50" t="s">
+      <c r="D31" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E31" s="12">
         <v>5</v>
       </c>
-      <c r="F31" s="50" t="s">
+      <c r="F31" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="G31" s="14">
+      <c r="G31" s="12">
         <v>5</v>
       </c>
-      <c r="H31" s="14">
+      <c r="H31" s="12">
         <v>6</v>
       </c>
-      <c r="I31" s="44">
+      <c r="I31" s="40">
         <v>1</v>
       </c>
-      <c r="J31" s="46" t="s">
+      <c r="J31" s="42" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="41" customFormat="1" ht="15" thickBot="1">
-      <c r="A32" s="52" t="s">
+    <row r="32" spans="1:10" s="37" customFormat="1" ht="15" thickBot="1">
+      <c r="A32" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="53">
+      <c r="B32" s="48">
         <v>141</v>
       </c>
-      <c r="C32" s="20">
+      <c r="C32" s="16">
         <v>31</v>
       </c>
-      <c r="D32" s="54" t="s">
+      <c r="D32" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="E32" s="20">
+      <c r="E32" s="16">
         <v>12</v>
       </c>
-      <c r="F32" s="54" t="s">
+      <c r="F32" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="G32" s="54" t="s">
+      <c r="G32" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="H32" s="20">
+      <c r="H32" s="16">
         <v>83</v>
       </c>
-      <c r="I32" s="55">
+      <c r="I32" s="50">
         <v>63</v>
       </c>
-      <c r="J32" s="56" t="s">
+      <c r="J32" s="51" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="15" customFormat="1" ht="15" thickTop="1">
-      <c r="A33" s="12" t="s">
+    <row r="33" spans="1:10" ht="15" thickTop="1">
+      <c r="A33" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="J33" s="8" t="s">
+      <c r="B33" s="6"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="J33" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="15" customFormat="1">
-      <c r="A34" s="9" t="s">
+    <row r="34" spans="1:10">
+      <c r="A34" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="J34" s="8" t="s">
+      <c r="B34" s="8"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="J34" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="15" customFormat="1">
-      <c r="A35" s="10" t="s">
+    <row r="35" spans="1:10">
+      <c r="A35" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="J35" s="8" t="s">
+      <c r="B35" s="9"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="J35" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="15" customFormat="1">
-      <c r="A36" s="10" t="s">
+    <row r="36" spans="1:10">
+      <c r="A36" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="J36" s="16" t="s">
+      <c r="B36" s="9"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="J36" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="15" customFormat="1">
-      <c r="A37" s="10" t="s">
+    <row r="37" spans="1:10">
+      <c r="A37" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="J37" s="16" t="s">
+      <c r="B37" s="9"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="J37" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="15" customFormat="1">
-      <c r="A38" s="10" t="s">
+    <row r="38" spans="1:10">
+      <c r="A38" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="J38" s="16" t="s">
+      <c r="B38" s="9"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="J38" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2167,6 +2184,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="מסמך פרסום למס" ma:contentTypeID="0x01010018C65C5FFA1A411CB733A36D5E05D176005EC8771B28134F43A3AE7296363CCDAA00776BC5533B746B4DA895265925393F0F" ma:contentTypeVersion="71" ma:contentTypeDescription="צור מסמך חדש." ma:contentTypeScope="" ma:versionID="8ae77355b6bf8a7cad4d74b6dac208bd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f37fff55-d014-472b-b062-823f736a4040" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9538be8a0eb7ecc1595008b44e49117e" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2459,15 +2485,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2511,13 +2528,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A03A8AFA-4D39-43C7-ACF0-DAA2BBAA76FE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6AE554FA-4D01-4458-B640-55F8D71F4B4F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6AE554FA-4D01-4458-B640-55F8D71F4B4F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A03A8AFA-4D39-43C7-ACF0-DAA2BBAA76FE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="f37fff55-d014-472b-b062-823f736a4040"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{949FB285-28F7-47FC-BA66-BB5DDD150604}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{949FB285-28F7-47FC-BA66-BB5DDD150604}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f37fff55-d014-472b-b062-823f736a4040"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>